--- a/软件项目跟踪与管理/Project Owner/AR360 Backlog.xlsx
+++ b/软件项目跟踪与管理/Project Owner/AR360 Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint 3 Backlog" sheetId="5" r:id="rId4"/>
     <sheet name="Sprint 4 Backlog" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -112,7 +112,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">评估某些用户故事实现价值后的变更：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>对于控制衣服大小和搭配，在评估中认为其实现难度与其实现价值不符，经讨论及需求比对，以及对项目影响的评估，予以删除，同时加入了购买衣服的新功能。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="1" shapeId="0">
+    <comment ref="O5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="1" shapeId="0">
+    <comment ref="O7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="1" shapeId="0">
+    <comment ref="O9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="1" shapeId="0">
+    <comment ref="O11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,16 +216,15 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>模型： 
+          <t xml:space="preserve">模型： 
 各个衣服的效果都应真实完整
 控制： 
 切换过程应平滑过渡。点击切换后响应延迟肉眼不可见
-尺寸：
-切换模型后衣服尺码应与前一模型保持一致</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="1" shapeId="0">
+    <comment ref="O13" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,24 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L15" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>模型： 
-在衣服正常尺寸内放大缩小，不会出现衣服效果失真的情况
-控制： 
-点击后视频中衣服响应延迟肉眼不可见</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L17" authorId="1" shapeId="0">
+    <comment ref="O15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L19" authorId="1" shapeId="0">
+    <comment ref="O17" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -260,14 +268,14 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>相似度：
-建模后的衣物应与已知衣物的相似度超过90%。
-模型：
-新建的模型应该真实完整，在各功能中允许范围内使用不存在失真现象。</t>
+          <t>模型：
+新建的模型应该真实完整，在各功能中允许范围内使用不存在失真现象。
+可用性：
+建模后的衣服均可以用于各个功能之中。</t>
         </r>
       </text>
     </comment>
-    <comment ref="L21" authorId="1" shapeId="0">
+    <comment ref="O19" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -277,12 +285,14 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>审美:
-搭配应该符合当下流行趋势，避免超前或落伍</t>
+          <t>表单：
+建立符合严格的3范式规则。
+数据库信息：
+完整而有效，不缺少信息，也不含冗余。</t>
         </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="1" shapeId="0">
+    <comment ref="O21" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,6 +306,23 @@
 一贯的简洁美观风格。
 比较：
 同前一个版本相比，在美工及布局方面应有较大提高，美感应使人感到愉悦。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O23" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>界面：
+UI清晰明朗，用户可以清楚的知晓如何进行衣服的购买。
+流程：
+用户能够完整有效的完成购买操作。</t>
         </r>
       </text>
     </comment>
@@ -400,7 +427,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="137">
   <si>
     <t>第一版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -635,10 +662,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.5.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>作为一名顾客，打开软件，穿上带有</t>
     </r>
@@ -668,10 +691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验收标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搭配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -696,10 +715,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验收标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成</t>
   </si>
   <si>
@@ -743,10 +758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户在“试穿”一件衣服时，点击搭配按钮，系统会列出与这件衣服搭配风格相符合的多件衣物供用户自己搭配选择，用户最多可以选择两件衣服同时试穿。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进行中</t>
   </si>
   <si>
@@ -794,9 +805,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划中</t>
-  </si>
-  <si>
     <t>实现制衣库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -813,10 +821,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprint 4 总目标：系统优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>优化界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -905,6 +909,101 @@
   </si>
   <si>
     <t>Sprint 2总共进行过三次修改，包含对sprint目标，用户故事，工作时间预期等的各个方面，最终版本存在用户故事四个，完成用户故事三个，剩余一个功能实现，但是不满足用户故事要求，因此只存在整合问题，将在后续task中继续进行及完成。具体的sprint task完成度在85%以上，通过了丰富的单元测试和黑盒测试，可以允许验收。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已删除</t>
+  </si>
+  <si>
+    <t>虽然功能完成，但是在review过程中，认为实现难度与其所能表现的价值不符，予以删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库完整合理，不存在冗余，能够支持项目运作，予以验收。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立后的模型真实完整，可以使用，功能实现良好，予以验收。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint 2总共进行过四次修改，包含对sprint目标，用户故事的方面，最终版本存在用户故事三个，完成用户故事三个，但在review过程中一个功能被认定为发布价值不足，因此取消其发布。具体的sprint task完成度在95%以上，通过了单元测试和黑盒测试，可以允许验收。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发人员完善用户数据库，添加用户地址项，用以支持购买功能的完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发人员完善用户数据库，添加用户地址项，用以支持购买功能的完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户点击“购买”按钮，进入商城界面，在其中选购衣服完成下单，完成衣物购买。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户点击“购买”按钮，进入商城界面，在其中选购衣服完成下单，完成衣物购买。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加入的项不影响之前数据库的正常使用，数据库运行良好，予以验收。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的UI在界面友好度，表达意义方面较之前版本都有很大提升，达到需求标准，同时能够满足各个功能的置入，予以验收。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户通过此功能可以完成购买衣物操作，界面良好，予以验收。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint 4 总目标：系统优化，购买衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint 2总共进行过五次修改，包含对sprint目标，用户故事的方面，在Sprint开始前对于不符合实现价值的搭配用户故事予以关闭，最终版本存在用户故事三个，完成用户故事三个。具体的sprint task完成度在95%以上，通过了单元测试和黑盒测试，可以允许验收。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.5.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1050,7 +1149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1105,6 +1204,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,19 +1234,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1433,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:F14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1448,56 +1553,65 @@
     <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-    </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+    </row>
+    <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="30"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="32"/>
+      <c r="O2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1506,7 +1620,7 @@
       <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="33" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1515,7 +1629,7 @@
       <c r="F3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1524,40 +1638,54 @@
       <c r="I3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="33" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="34"/>
+      <c r="B4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="20" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="20" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="20" t="s">
+      <c r="I4" s="23"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="20"/>
-    </row>
-    <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="23"/>
+    </row>
+    <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1566,59 +1694,71 @@
       <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="32"/>
+      <c r="J5" s="34"/>
       <c r="K5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="34"/>
+      <c r="N5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="20" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="20" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="20"/>
-    </row>
-    <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="23"/>
+    </row>
+    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1627,7 +1767,7 @@
       <c r="F7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="21" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1636,40 +1776,54 @@
       <c r="I7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="21" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="27" t="s">
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="20"/>
-    </row>
-    <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
+      <c r="I8" s="23"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="23"/>
+    </row>
+    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1678,7 +1832,7 @@
       <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="24" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1687,7 +1841,7 @@
       <c r="F9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="24" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -1696,38 +1850,50 @@
       <c r="I9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="25"/>
+      <c r="B10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="20" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="20"/>
-    </row>
-    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="25" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="23"/>
+    </row>
+    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1736,7 +1902,7 @@
       <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1745,47 +1911,59 @@
       <c r="F11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="20" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="J11" s="21"/>
       <c r="K11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="21"/>
+      <c r="N11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
-      <c r="B12" s="28" t="s">
+    <row r="12" spans="1:15" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="28"/>
+      <c r="B12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="20" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="20" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+      <c r="I12" s="23"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" s="23"/>
+    </row>
+    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1794,7 +1972,7 @@
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1803,59 +1981,71 @@
       <c r="F13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="26"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="18"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
+      <c r="L13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
       <c r="B14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="20" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="20" t="s">
+      <c r="I14" s="23"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="23"/>
+    </row>
+    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="26" t="s">
         <v>46</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -1864,108 +2054,188 @@
       <c r="I15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="24" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
+    <row r="16" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
       <c r="B16" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="20" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="20" t="s">
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="20"/>
-    </row>
-    <row r="17" spans="10:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J17" s="21"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" s="23"/>
+    </row>
+    <row r="17" spans="10:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J17" s="24"/>
       <c r="K17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="10:15" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J18" s="24"/>
+      <c r="K18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" s="23"/>
+    </row>
+    <row r="19" spans="10:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J19" s="24"/>
+      <c r="K19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="10:15" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J20" s="24"/>
+      <c r="K20" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="23"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="O20" s="23"/>
+    </row>
+    <row r="21" spans="10:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="20"/>
+      <c r="N21" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="10:15" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J22" s="20"/>
+      <c r="K22" s="23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="10:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J18" s="21"/>
-      <c r="K18" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="10:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J19" s="21"/>
-      <c r="K19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="10:12" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J20" s="21"/>
-      <c r="K20" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="20"/>
-    </row>
-    <row r="21" spans="10:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J21" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L21" s="9" t="s">
+      <c r="L22" s="23"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="O22" s="23"/>
+    </row>
+    <row r="23" spans="10:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J23" s="20"/>
+      <c r="K23" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="20"/>
+      <c r="N23" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O23" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="10:12" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J22" s="25"/>
-      <c r="K22" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" s="20"/>
-    </row>
-    <row r="23" spans="10:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J23" s="25"/>
-      <c r="K23" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="10:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J24" s="25"/>
-      <c r="K24" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="L24" s="20"/>
-    </row>
-    <row r="25" spans="10:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="10:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="10:15" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J24" s="20"/>
+      <c r="K24" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="O24" s="23"/>
+    </row>
+    <row r="25" spans="10:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="10:15" ht="84.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="72">
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="M19:M24"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="M7:M14"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K18:L18"/>
@@ -1996,12 +2266,6 @@
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E8:F8"/>
@@ -2009,6 +2273,11 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="J21:J24"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H8:I8"/>
@@ -2022,9 +2291,19 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -2033,7 +2312,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
+  <conditionalFormatting sqref="I2">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -2042,8 +2321,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="iconSet" priority="2">
+  <conditionalFormatting sqref="L2">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2052,7 +2331,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C5 C15 C9 C11 C13 C7 F3 F5 F7 F9 F11 F13 F15 I3 I5 I7 I9 I11 I13 I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C5 C15 C9 C11 C13 C7 F3 F5 F7 F9 F11 F13 F15 I3 I5 I7 I9 I11 I13 I15 L3 L5 L7 L9 L11 L13 L15 L17 L19 L23 L21">
       <formula1>"保留,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2081,22 +2360,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2116,10 +2395,10 @@
         <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2133,16 +2412,16 @@
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2156,43 +2435,43 @@
         <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+        <v>92</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+        <v>63</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2215,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2230,22 +2509,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2262,13 +2541,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="16" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -2276,22 +2555,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" s="3">
         <v>90</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2299,22 +2578,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>90</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2325,19 +2604,19 @@
         <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>90</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -2348,46 +2627,46 @@
         <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>80</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+        <v>63</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2412,10 +2691,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2425,22 +2704,29 @@
     <col min="3" max="3" width="29.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -2456,42 +2742,60 @@
       <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="F2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="F3" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="F4" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2502,25 +2806,49 @@
         <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="E5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -2538,10 +2866,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2551,22 +2879,29 @@
     <col min="3" max="3" width="29.625" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -2582,58 +2917,117 @@
       <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="F2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="F3" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="F4" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 D4:D5">
       <formula1>"已完成,进行中,计划中,已删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
